--- a/geoszferak.xlsx
+++ b/geoszferak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\András\Desktop\ppa\MI\focikviz\9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013AF5BB-37E2-4339-B96E-F8BAC62F7681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA53F893-74AE-4CBD-B917-601CC1B8BE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="86">
   <si>
     <t>kerdés</t>
   </si>
@@ -285,6 +285,15 @@
   </si>
   <si>
     <t>nedves kontinentális;óceáni;tajga</t>
+  </si>
+  <si>
+    <t>Melyik éghajlat jellemző a Dél-Kínai-hegyvidékre?</t>
+  </si>
+  <si>
+    <t>mérsékelt övezeti monszun</t>
+  </si>
+  <si>
+    <t>forró övezeti monszun;szavanna;egyenlítői</t>
   </si>
 </sst>
 </file>
@@ -656,9 +665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1250,13 +1257,25 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="A29" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="3"/>
+      <c r="F29" s="2">
+        <v>4</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
@@ -1303,7 +1322,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="2">
         <f>SUM(F3:F33)</f>
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G34" s="2"/>
     </row>
